--- a/tindMigration/TIND_ToCleanUp.xlsx
+++ b/tindMigration/TIND_ToCleanUp.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="24">
   <si>
     <t>TIND Record ID</t>
   </si>
@@ -422,11 +422,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E79"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D62" sqref="D62"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -961,7 +961,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="C62" t="s">
         <v>23</v>
@@ -969,7 +969,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="C63" t="s">
         <v>23</v>
@@ -977,7 +977,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="C64" t="s">
         <v>23</v>
@@ -985,7 +985,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="C65" t="s">
         <v>23</v>
@@ -993,7 +993,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66">
-        <v>1835</v>
+        <v>1837</v>
       </c>
       <c r="C66" t="s">
         <v>23</v>
@@ -1001,105 +1001,81 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67">
-        <v>1835</v>
-      </c>
-      <c r="C67" t="s">
-        <v>23</v>
+        <v>1812</v>
+      </c>
+      <c r="B67" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68">
-        <v>1836</v>
-      </c>
-      <c r="C68" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="B68" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69">
-        <v>1837</v>
-      </c>
-      <c r="C69" t="s">
-        <v>23</v>
+        <v>1779</v>
+      </c>
+      <c r="B69" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70">
-        <v>1812</v>
+        <v>1777</v>
       </c>
       <c r="B70" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71">
-        <v>26</v>
+        <v>1821</v>
       </c>
       <c r="B71" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72">
-        <v>1779</v>
+        <v>1820</v>
       </c>
       <c r="B72" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73">
-        <v>1777</v>
+        <v>1768</v>
       </c>
       <c r="B73" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74">
-        <v>1821</v>
+        <v>1784</v>
       </c>
       <c r="B74" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75">
-        <v>1820</v>
+        <v>1826</v>
       </c>
       <c r="B75" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76">
-        <v>1768</v>
+        <v>1790</v>
       </c>
       <c r="B76" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A77">
-        <v>1784</v>
-      </c>
-      <c r="B77" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A78">
-        <v>1826</v>
-      </c>
-      <c r="B78" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A79">
-        <v>1790</v>
-      </c>
-      <c r="B79" t="s">
         <v>20</v>
       </c>
     </row>
